--- a/módulo 07/aula-graficos-combinados.xlsx
+++ b/módulo 07/aula-graficos-combinados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Documents\Curso Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Curso Excel do básico ao avançado\módulo 07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="741" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="741" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Evolução das Vendas" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Mês</t>
   </si>
@@ -105,16 +105,21 @@
   <si>
     <t>Limpeza</t>
   </si>
+  <si>
+    <t>Transformar a coluna orçado em uma linha(meta): Clica em
+cima da coluna que deseja transformar em linha/aba
+design/alterar tipo de gráfico/combinado/abre o menu dos dados que deseja transformar em linha/clica no desejado/ok</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -218,42 +223,45 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -357,120 +365,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Controle de Vendas'!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Orçado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Controle de Vendas'!$B$5:$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fev</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mai</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ago</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Set</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Out</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dez</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Controle de Vendas'!$C$5:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -593,11 +487,156 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="479260216"/>
-        <c:axId val="479251592"/>
+        <c:axId val="-1857815488"/>
+        <c:axId val="-1857818208"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orçado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Controle de Vendas'!$B$5:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Controle de Vendas'!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1857815488"/>
+        <c:axId val="-1857818208"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="479260216"/>
+        <c:axId val="-1857815488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +735,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479251592"/>
+        <c:crossAx val="-1857818208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -704,7 +743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479251592"/>
+        <c:axId val="-1857818208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +850,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479260216"/>
+        <c:crossAx val="-1857815488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,7 +1473,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1445,7 +1484,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8990034" cy="6171678"/>
+    <xdr:ext cx="9651235" cy="6013373"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
@@ -1488,7 +1527,7 @@
         <xdr:cNvPr id="2" name="CaixaDeTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1606,7 @@
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3506,13 +3547,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" topLeftCell="B5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3554,7 +3596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -3577,7 +3619,9 @@
       <c r="H5" s="13">
         <v>1953.12</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
